--- a/Abbaspour/Codes für die Thesis/Results_DWSIM_Prozessimulation.xlsx
+++ b/Abbaspour/Codes für die Thesis/Results_DWSIM_Prozessimulation.xlsx
@@ -8,41 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\Dropbox\Thesis_ELnaz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCF66BA-8EBC-4B6F-9965-86DCB3F9FE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91730F8-3FFD-414A-8A8D-616D7B0CEBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9FB9CE6-A5C1-480C-A98D-4CFEE39DA034}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B9FB9CE6-A5C1-480C-A98D-4CFEE39DA034}"/>
   </bookViews>
   <sheets>
     <sheet name="DWSIM_Simulationen" sheetId="1" r:id="rId1"/>
-    <sheet name="Vergleich_DWSIM_EnzymeML" sheetId="2" r:id="rId2"/>
+    <sheet name="Vergleich_DWSIM_EnzymeML_MM" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Vergleich_DWSIM_EnzymeML!$B$27</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Vergleich_DWSIM_EnzymeML_MM!$C$52</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,0001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs0" localSheetId="1" hidden="1">Vergleich_DWSIM_EnzymeML!$B$27</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Vergleich_DWSIM_EnzymeML!$B$27</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Vergleich_DWSIM_EnzymeML!$B$27</definedName>
+    <definedName name="solver_lhs0" localSheetId="1" hidden="1">Vergleich_DWSIM_EnzymeML_MM!$C$52</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Vergleich_DWSIM_EnzymeML_MM!$C$52</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Vergleich_DWSIM_EnzymeML_MM!$C$52</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,075"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Vergleich_DWSIM_EnzymeML!$R$37</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Vergleich_DWSIM_EnzymeML_MM!$H$63</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,000001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel0" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs0" localSheetId="1" hidden="1">167</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">167</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">167</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rhs0" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
   <si>
     <t>Km</t>
   </si>
@@ -242,10 +242,101 @@
     <t>Standardabweichung</t>
   </si>
   <si>
-    <t>Bestimmung Konzentration von  ABTS ox mit angepassten Parametern</t>
+    <t>Conversion</t>
   </si>
   <si>
-    <t>DWSIM Simulation angepassten kinetischen Parametern</t>
+    <t>Conversion %</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>absolute Abweichung</t>
+  </si>
+  <si>
+    <t>relative Abweichung</t>
+  </si>
+  <si>
+    <t>BEACHTE:</t>
+  </si>
+  <si>
+    <t>kcat nimmt mit zunehmender Zeit einen geringeren Wert an, daher ein kcat nach je 4 Zeitschritten bestimmen</t>
+  </si>
+  <si>
+    <t>nach 2.92 s</t>
+  </si>
+  <si>
+    <t>nach 21.9 s</t>
+  </si>
+  <si>
+    <t>nach 40.88 s</t>
+  </si>
+  <si>
+    <t>nach 61.32 s</t>
+  </si>
+  <si>
+    <t>Km [mol/l]</t>
+  </si>
+  <si>
+    <t>kcat [1/s]</t>
+  </si>
+  <si>
+    <t>Zeit</t>
+  </si>
+  <si>
+    <t>bleibt konstant</t>
+  </si>
+  <si>
+    <t>Bestimmung Konzentration von  ABTS ox mit angepasstem kcat</t>
+  </si>
+  <si>
+    <t>Auftragung Substratkonzentration über kcat</t>
+  </si>
+  <si>
+    <t>ABTS_red [mol/m^3]</t>
+  </si>
+  <si>
+    <t>Gleichung für kcat in den Script Manager integrieren</t>
+  </si>
+  <si>
+    <r>
+      <t>y = 3.6765*(c_Subtrate)**</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 4.1412*(c_Substrate) + 1.7947</t>
+    </r>
+  </si>
+  <si>
+    <t>y = 3.6765*(c_Subtrate)**2 - 4.1412*(c_Substrate) + 1.7947</t>
+  </si>
+  <si>
+    <t>DWSIM Simulation mit angepasster katalytischer Aktivität</t>
+  </si>
+  <si>
+    <t>absolute Abweichung zum Laborwert</t>
+  </si>
+  <si>
+    <t>bei 59.35 s</t>
   </si>
 </sst>
 </file>
@@ -255,11 +346,11 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="174" formatCode="0.00000"/>
-    <numFmt numFmtId="179" formatCode="0.000000000"/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,8 +381,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,12 +416,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +450,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -504,11 +607,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -525,119 +641,81 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -654,16 +732,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -695,6 +814,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Konzentrationsprofile im Reaktor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1034,7 +1208,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
-        <c:minorUnit val="5"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="150685759"/>
@@ -1256,6 +1430,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Konzentrationsprofil im Reaktor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1317,7 +1546,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25619999999999998</c:v>
+                  <c:v>0.20030000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,7 +1613,7 @@
                   <c:v>0.59448410395491003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34899999999999998</c:v>
+                  <c:v>0.39500000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1813,6 +2042,600 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Konzentrationsprofil im Reaktor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ABTS oxidiert</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DWSIM_Simulationen!$J$50:$K$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DWSIM_Simulationen!$J$51:$K$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20030000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4B1-48B2-818D-ECDAADDF0D37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ABTS reduziert</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DWSIM_Simulationen!$J$50:$K$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DWSIM_Simulationen!$J$52:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.59448410395491003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39500000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B4B1-48B2-818D-ECDAADDF0D37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Laccase</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DWSIM_Simulationen!$J$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DWSIM_Simulationen!$J$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.1092944390483996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1351823399999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B4B1-48B2-818D-ECDAADDF0D37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="85632175"/>
+        <c:axId val="150685759"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="85632175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Zeit [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="150685759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="150685759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Konzentration [mmol/l]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85632175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
               <a:lnSpc>
                 <a:spcPct val="100000"/>
@@ -1935,7 +2758,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Vergleich_DWSIM_EnzymeML!$B$3:$Q$3</c:f>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$3:$Q$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1992,7 +2815,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vergleich_DWSIM_EnzymeML!$B$4:$Q$4</c:f>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$4:$Q$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2042,7 +2865,7 @@
                   <c:v>0.40695788478229894</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.41563742826422084</c:v>
+                  <c:v>0.41563742826422101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2086,7 +2909,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Vergleich_DWSIM_EnzymeML!$B$7:$C$7</c:f>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$7:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2101,7 +2924,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vergleich_DWSIM_EnzymeML!$B$8:$C$8</c:f>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$8:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2153,7 +2976,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Vergleich_DWSIM_EnzymeML!$B$18:$Q$18</c:f>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$18:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2210,7 +3033,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vergleich_DWSIM_EnzymeML!$B$23:$Q$23</c:f>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$23:$Q$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2603,7 +3426,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2645,7 +3468,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>KM = 0,2 mmol/l und kcat = 0,77 1/s</a:t>
+              <a:t>Vergleich: DWSIM und MM</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2717,7 +3540,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Vergleich_DWSIM_EnzymeML!$B$18:$Q$18</c:f>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$18:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2774,7 +3597,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vergleich_DWSIM_EnzymeML!$B$35:$Q$35</c:f>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$60:$Q$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2782,49 +3605,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0912267703688285E-2</c:v>
+                  <c:v>1.6136130540822764E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1803353162932419E-2</c:v>
+                  <c:v>3.2225734356616409E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2523998194381225E-2</c:v>
+                  <c:v>4.8047879585557882E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1411519453639081</c:v>
+                  <c:v>0.15930380306537784</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15175553277704867</c:v>
+                  <c:v>0.17014886624644834</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16233247562385428</c:v>
+                  <c:v>0.18096490920825159</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17288228221192836</c:v>
+                  <c:v>0.1917513757273881</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27810394688444806</c:v>
+                  <c:v>0.2845374766249249</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2883146523845625</c:v>
+                  <c:v>0.2935662206370877</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29849117670716951</c:v>
+                  <c:v>0.30256782639841617</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.30863283735208308</c:v>
+                  <c:v>0.31154181308284967</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40969380584201076</c:v>
+                  <c:v>0.39226647500449152</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.41939367852975323</c:v>
+                  <c:v>0.40008444374179103</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.42904880828727754</c:v>
+                  <c:v>0.40787493055155649</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.43865823812572086</c:v>
+                  <c:v>0.41563747118275507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2868,7 +3691,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Vergleich_DWSIM_EnzymeML!$B$64:$C$64</c:f>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$88:$C$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2883,7 +3706,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vergleich_DWSIM_EnzymeML!$B$65:$C$65</c:f>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$89:$C$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2891,7 +3714,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39806641999999998</c:v>
+                  <c:v>0.32399753999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2935,6 +3758,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Zeit [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2997,6 +3875,96 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Konzentration [mmol/l]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3035,6 +4003,1720 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="57285631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.8095804032728703E-2"/>
+                  <c:y val="0.47723040732222705"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 3.6765x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t> - 4.1412x + 1.7947</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>R² = 0.9952</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$C$67:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.93777427898309329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78903511011994398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66743219229364292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55436254672694341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$C$68:$F$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1492182154714601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79833236689976395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68865699653339341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62142158560182725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD13-45D8-90B0-3F19865B1153}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="479959552"/>
+        <c:axId val="479968672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="479959552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Substratkonzentration [mol/m³]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479968672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="479968672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>kcat [1/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479959552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Vergleich: kcat</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>"Michaelis-Menten"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$55:$Q$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59.86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$60:$Q$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6136130540822764E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2225734356616409E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8047879585557882E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15930380306537784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17014886624644834</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18096490920825159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1917513757273881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2845374766249249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2935662206370877</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30256782639841617</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31154181308284967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39226647500449152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40008444374179103</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40787493055155649</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41563747118275507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBAC-460C-9092-CBDD6F1CA376}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>"Messwerte Template 18.8.2021</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$3:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59.86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$4:$Q$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1884108662702573E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2225719948700021E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1380695140751107E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16282953117510654</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17014884769344368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17876361846281397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18770225279494251</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28453745805966868</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29392950137965879</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30170222688585752</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30863290712888469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39251356988327951</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40080447708989153</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40695788478229894</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41563742826422101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBAC-460C-9092-CBDD6F1CA376}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="457032016"/>
+        <c:axId val="457032496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="457032016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Zeit [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457032496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="457032496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Produktkonzentration [mmmol/l]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457032016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Vergleich: DWSIM und Laborversuch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>EnzymeML Template 18.8.2021</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$3:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59.86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$4:$Q$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1884108662702573E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2225719948700021E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1380695140751107E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16282953117510654</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17014884769344368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17876361846281397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18770225279494251</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28453745805966868</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29392950137965879</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30170222688585752</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30863290712888469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39251356988327951</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40080447708989153</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40695788478229894</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41563742826422101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31EA-401C-B559-168940F1509A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>DWSIM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$88:$C$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vergleich_DWSIM_EnzymeML_MM!$B$89:$C$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32399753999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-31EA-401C-B559-168940F1509A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="488788208"/>
+        <c:axId val="488767568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="488788208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488767568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="488767568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488788208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3281,6 +5963,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4830,6 +7672,2070 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5355,8 +10261,8 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>554492</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3425327</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
@@ -5398,16 +10304,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>6443</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>582638</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>455295</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>626746</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>43816</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5435,15 +10341,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>12383</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>735330</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5470,6 +10376,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>625699</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>49082</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0270A978-3835-4C72-A7EC-26C348F9861D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5477,16 +10419,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9076</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>167809</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>418203</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>46810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371697</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>627833</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>69942</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5513,16 +10455,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>13223</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>156321</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>94086</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>176125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>459441</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>678179</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>150358</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5542,6 +10484,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>44631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA86288C-B500-4731-1F26-861502A6789C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10612</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>765810</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>134167</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667FBA9F-6106-018E-16CF-688C5AA60FAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>147469</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>29019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>780826</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>125168</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB78B50-9C53-A63E-47AF-8873D8150BFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5849,14 +10899,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E439BDA-89D5-4F8E-AB61-B1DCC073AF6B}">
   <dimension ref="B1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
@@ -5889,50 +10939,50 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="I6" s="17" t="s">
+      <c r="G6" s="58"/>
+      <c r="I6" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="11">
         <v>-0.180672</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="8" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -5941,7 +10991,7 @@
       <c r="J7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="32" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="8" t="s">
@@ -5949,97 +10999,97 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <v>7.7510100000000005E-4</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="16">
         <v>2.0894687E-7</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="33">
         <v>7.1355148E-6</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="17">
         <f>K8*1000</f>
         <v>7.1355148000000002E-3</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="23">
         <v>59.345399999999998</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="19">
         <v>88.683999999999997</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="16">
         <v>1.5516869999999998E-5</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="33">
         <v>6.7520153999999999E-5</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="17">
         <f t="shared" ref="L9:L12" si="0">K9*1000</f>
         <v>6.7520153999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="11">
         <v>120</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="7">
         <v>0.90723799999999999</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="21">
         <v>1.9771643E-6</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="34">
         <v>5.2990106999999999E-4</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="22">
         <f t="shared" si="0"/>
         <v>0.52990106999999997</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="9">
@@ -6048,22 +11098,23 @@
       <c r="D11" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="E11" s="52"/>
       <c r="I11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="16">
         <v>4.2311090000000002E-4</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="33">
         <v>1.4449236000000001E-2</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="17">
         <f t="shared" si="0"/>
         <v>14.449236000000001</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9">
@@ -6072,22 +11123,23 @@
       <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="E12" s="52"/>
       <c r="I12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="16">
         <v>0.99955919000000004</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="33">
         <v>34.134943</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="17">
         <f t="shared" si="0"/>
         <v>34134.942999999999</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="9">
@@ -6096,66 +11148,63 @@
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="48" t="s">
+      <c r="L13" s="35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="29">
         <v>0</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="27">
         <v>59.35</v>
       </c>
     </row>
     <row r="17" spans="9:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="13">
         <v>0</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="28">
         <v>0.52987637949999999</v>
       </c>
     </row>
     <row r="18" spans="9:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="13">
         <v>0.59448410395491003</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="28">
         <v>6.7517007800000001E-2</v>
       </c>
     </row>
     <row r="19" spans="9:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="13">
         <v>7.1092944390483996E-3</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="28">
         <v>7.1351823399999998E-3</v>
       </c>
     </row>
     <row r="21" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="J21" s="19"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="35" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
@@ -6173,58 +11222,58 @@
       <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="5">
-        <v>0.77717405571218301</v>
+      <c r="C37" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="44"/>
-      <c r="I40" s="17" t="s">
+      <c r="G40" s="58"/>
+      <c r="I40" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="11">
         <v>0.16225700000000001</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="8" t="s">
         <v>28</v>
       </c>
       <c r="I41" s="8" t="s">
@@ -6233,7 +11282,7 @@
       <c r="J41" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K41" s="45" t="s">
+      <c r="K41" s="32" t="s">
         <v>27</v>
       </c>
       <c r="L41" s="8" t="s">
@@ -6241,101 +11290,101 @@
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="7">
         <v>0</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="15">
-        <v>3.6071200000000001E-4</v>
+      <c r="G42" s="13">
+        <v>2.9339600000000002E-4</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J42" s="21">
+      <c r="J42" s="16">
         <v>2.0894687E-7</v>
       </c>
-      <c r="K42" s="46">
+      <c r="K42" s="33">
         <v>7.1139116000000003E-6</v>
       </c>
-      <c r="L42" s="22">
+      <c r="L42" s="17">
         <f>K42*1000</f>
         <v>7.1139116000000007E-3</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="23">
         <v>59.345399999999998</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="26">
-        <v>41.2712</v>
+      <c r="G43" s="19">
+        <v>33.569200000000002</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J43" s="21">
+      <c r="J43" s="16">
         <v>1.0261257E-5</v>
       </c>
-      <c r="K43" s="46">
+      <c r="K43" s="33">
         <v>3.4936023000000001E-4</v>
       </c>
-      <c r="L43" s="22">
+      <c r="L43" s="17">
         <f t="shared" ref="L43:L46" si="1">K43*1000</f>
         <v>0.34936022999999999</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="11">
         <v>120</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="12">
-        <v>0.422205</v>
-      </c>
-      <c r="I44" s="27" t="s">
+      <c r="G44" s="7">
+        <v>0.343414</v>
+      </c>
+      <c r="I44" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J44" s="28">
+      <c r="J44" s="21">
         <v>7.2328143000000002E-6</v>
       </c>
-      <c r="K44" s="47">
-        <v>2.4625226000000002E-4</v>
-      </c>
-      <c r="L44" s="29">
+      <c r="K44" s="34">
+        <v>2.0033677E-4</v>
+      </c>
+      <c r="L44" s="22">
         <f t="shared" si="1"/>
-        <v>0.24625226000000003</v>
+        <v>0.20033677</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="9">
-        <v>8.2685600000000001E-12</v>
+        <v>6.7255E-12</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>18</v>
@@ -6343,23 +11392,23 @@
       <c r="I45" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="21">
+      <c r="J45" s="16">
         <v>4.2518280000000002E-4</v>
       </c>
-      <c r="K45" s="46">
-        <v>1.4449236000000001E-2</v>
-      </c>
-      <c r="L45" s="22">
+      <c r="K45" s="33">
+        <v>1.4480309E-2</v>
+      </c>
+      <c r="L45" s="17">
         <f t="shared" si="1"/>
-        <v>14.449236000000001</v>
+        <v>14.480309</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="9">
-        <v>1.03357E-6</v>
+        <v>8.4068700000000002E-7</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>19</v>
@@ -6367,98 +11416,95 @@
       <c r="I46" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J46" s="21">
+      <c r="J46" s="16">
         <v>0.99955711000000003</v>
       </c>
-      <c r="K46" s="46">
-        <v>34.134943</v>
-      </c>
-      <c r="L46" s="22">
+      <c r="K46" s="33">
+        <v>34.014645999999999</v>
+      </c>
+      <c r="L46" s="17">
         <f t="shared" si="1"/>
-        <v>34134.942999999999</v>
+        <v>34014.646000000001</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="9">
-        <v>-9.9972700000000004E-7</v>
+        <v>-8.1315900000000004E-7</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="48" t="s">
+      <c r="L47" s="35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K48" s="20"/>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I49" s="35" t="s">
+      <c r="I49" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I50" s="33" t="s">
+      <c r="I50" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J50" s="39">
+      <c r="J50" s="29">
         <v>0</v>
       </c>
-      <c r="K50" s="37">
+      <c r="K50" s="27">
         <v>59.35</v>
       </c>
     </row>
     <row r="51" spans="9:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="I51" s="34" t="s">
+      <c r="I51" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J51" s="36">
+      <c r="J51" s="13">
         <v>0</v>
       </c>
-      <c r="K51" s="38">
-        <v>0.25619999999999998</v>
+      <c r="K51" s="28">
+        <v>0.20030000000000001</v>
       </c>
     </row>
     <row r="52" spans="9:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="I52" s="34" t="s">
+      <c r="I52" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J52" s="36">
+      <c r="J52" s="13">
         <v>0.59448410395491003</v>
       </c>
-      <c r="K52" s="38">
-        <v>0.34899999999999998</v>
+      <c r="K52" s="28">
+        <v>0.39500000000000002</v>
       </c>
     </row>
     <row r="53" spans="9:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="I53" s="34" t="s">
+      <c r="I53" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53" s="13">
         <v>7.1092944390483996E-3</v>
       </c>
-      <c r="K53" s="38">
+      <c r="K53" s="28">
         <v>7.1351823399999998E-3</v>
       </c>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="J55" s="19"/>
+      <c r="J55" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B39:G39"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="I40:L40"/>
     <mergeCell ref="I49:K49"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6468,1192 +11514,1476 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41C4E95-F822-4947-9C1C-26604859975F}">
-  <dimension ref="A2:R65"/>
+  <dimension ref="A2:U89"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S46" sqref="S46"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" customWidth="1"/>
+    <col min="19" max="19" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>0</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>1.46</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>2.92</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>4.3599999999999994</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>18.98</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>20.439999999999998</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>21.9</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <v>23.36</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>37.96</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="12">
         <v>39.42</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <v>40.879999999999995</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <v>42.339999999999996</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="12">
         <v>56.94</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="12">
         <v>58.4</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="12">
         <v>59.86</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="12">
         <v>61.32</v>
       </c>
+      <c r="R3" s="54" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>0</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>2.1884108662702573E-2</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>3.2225719948700021E-2</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>4.1380695140751107E-2</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>0.16282953117510654</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>0.17014884769344368</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>0.17876361846281397</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>0.18770225279494251</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>0.28453745805966868</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <v>0.29392950137965879</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <v>0.30170222688585752</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <v>0.30863290712888469</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="12">
         <v>0.39251356988327951</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="12">
         <v>0.40080447708989153</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="12">
         <v>0.40695788478229894</v>
       </c>
-      <c r="Q4" s="13">
-        <v>0.41563742826422084</v>
+      <c r="Q4" s="12">
+        <v>0.41563742826422101</v>
+      </c>
+      <c r="R4" s="54">
+        <f>(1-(Q4/0.97))*100</f>
+        <v>57.150780591317421</v>
+      </c>
+      <c r="S4">
+        <f>100-R4</f>
+        <v>42.849219408682579</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="O6" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="71">
+        <f>O4+((P4-O4)/(P3-O3))*(C7-O3)</f>
+        <v>0.40480840675275936</v>
+      </c>
+      <c r="Q6" s="71" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>0</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>59.35</v>
       </c>
+      <c r="F7" s="54" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>0</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <f>0.0008929679*1000</f>
         <v>0.89296790000000004</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="36" t="s">
         <v>43</v>
       </c>
+      <c r="F8" s="55">
+        <f>(1-(C8/0.97))*100</f>
+        <v>7.9414536082474179</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F9" s="53">
+        <f>100-F8</f>
+        <v>92.058546391752586</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="E11" s="52" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="E11" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="55"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59" t="s">
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="37">
         <f>11.6*10^-6</f>
         <v>1.1599999999999999E-5</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="59" t="s">
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="10">
         <f>0.97*10^-3</f>
         <v>9.6999999999999994E-4</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="10">
         <f>0.2*10^-3</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="10">
         <v>1.67</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="64" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>0</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>1.46</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>2.92</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>4.3599999999999994</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>18.98</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>20.439999999999998</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>21.9</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>23.36</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <v>37.96</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
         <v>39.42</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="12">
         <v>40.879999999999995</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <v>42.339999999999996</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="12">
         <v>56.94</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="12">
         <v>58.4</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="12">
         <v>59.86</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="12">
         <v>61.32</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="63" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>9.6999999999999994E-4</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <f>B19-B22</f>
         <v>9.4655160136752133E-4</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <f>C19-C22</f>
         <v>9.2320207876798132E-4</v>
       </c>
-      <c r="E19" s="13">
-        <f t="shared" ref="D19:Q19" si="0">D19-D22</f>
+      <c r="E19" s="12">
+        <f t="shared" ref="E19:Q19" si="0">D19-D22</f>
         <v>9.0027356906214576E-4</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <f>E19-E22</f>
         <v>6.6853642384010555E-4</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <f t="shared" si="0"/>
         <v>6.4676612684295683E-4</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="12">
         <f t="shared" si="0"/>
         <v>6.2516327406277332E-4</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <f t="shared" si="0"/>
         <v>6.0373531131201565E-4</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="12">
         <f t="shared" si="0"/>
         <v>3.9128330108241581E-4</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="12">
         <f t="shared" si="0"/>
         <v>3.7256687100862353E-4</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="12">
         <f t="shared" si="0"/>
         <v>3.5416316298025131E-4</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="12">
         <f t="shared" si="0"/>
         <v>3.3608754932112585E-4</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="12">
         <f t="shared" si="0"/>
         <v>1.5877314423947948E-4</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="12">
         <f t="shared" si="0"/>
         <v>1.4625660011290725E-4</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="12">
         <f t="shared" si="0"/>
         <v>1.3430998892791752E-4</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="12">
         <f t="shared" si="0"/>
         <v>1.2294716502238946E-4</v>
       </c>
+      <c r="S19" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="71">
+        <f>O23+((P23-O23)/(P18-O18))*(C7-O18)</f>
+        <v>0.83151687976773669</v>
+      </c>
+      <c r="U19" s="71" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <f>($B$12*$B$15*B19)/($B$14+B19)</f>
         <v>1.6060547008547005E-5</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <f>($B$12*$B$15*C19)/($B$14+C19)</f>
         <v>1.5992823698315097E-5</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <f>($B$12*$B$15*D19)/($B$14+D19)</f>
         <v>1.5922576184608066E-5</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <f>($B$12*$B$15*E19)/($B$14+E19)</f>
         <v>1.5850693927636126E-5</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f>($B$12*$B$15*F19)/($B$14+F19)</f>
         <v>1.4911162326814212E-5</v>
       </c>
-      <c r="G20" s="13">
-        <f t="shared" ref="C20:Q20" si="1">($B$12*$B$15*G19)/($B$14+G19)</f>
+      <c r="G20" s="12">
+        <f t="shared" ref="G20:Q20" si="1">($B$12*$B$15*G19)/($B$14+G19)</f>
         <v>1.4796474506974986E-5</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <f>($B$12*$B$15*H19)/($B$14+H19)</f>
         <v>1.4676686815587406E-5</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <f t="shared" si="1"/>
         <v>1.4551507549972589E-5</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="12">
         <f t="shared" si="1"/>
         <v>1.2819472653282373E-5</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="12">
         <f t="shared" si="1"/>
         <v>1.2605279471487883E-5</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="12">
         <f t="shared" si="1"/>
         <v>1.2380557300770868E-5</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="12">
         <f t="shared" si="1"/>
         <v>1.2144822265866189E-5</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="12">
         <f t="shared" si="1"/>
         <v>8.5729754291590572E-6</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="12">
         <f t="shared" si="1"/>
         <v>8.1826104006778862E-6</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="12">
         <f t="shared" si="1"/>
         <v>7.7827560996767526E-6</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="12">
         <f t="shared" si="1"/>
         <v>7.3749911402647115E-6</v>
       </c>
+      <c r="S20">
+        <f>C8-T19</f>
+        <v>6.1451020232263343E-2</v>
+      </c>
+      <c r="T20" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <f>C18-B18</f>
         <v>1.46</v>
       </c>
-      <c r="C21" s="13">
-        <f t="shared" ref="C21:Q21" si="2">D18-C18</f>
+      <c r="C21" s="12">
+        <f t="shared" ref="C21:P21" si="2">D18-C18</f>
         <v>1.46</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <f t="shared" si="2"/>
         <v>1.4399999999999995</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <f t="shared" si="2"/>
         <v>14.620000000000001</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <f t="shared" si="2"/>
         <v>1.4599999999999973</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <f t="shared" si="2"/>
         <v>1.4600000000000009</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <f t="shared" si="2"/>
         <v>1.4600000000000009</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <f t="shared" si="2"/>
         <v>14.600000000000001</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="12">
         <f t="shared" si="2"/>
         <v>1.4600000000000009</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="12">
         <f t="shared" si="2"/>
         <v>1.4599999999999937</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="12">
         <f t="shared" si="2"/>
         <v>1.4600000000000009</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="12">
         <f t="shared" si="2"/>
         <v>14.600000000000001</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="12">
         <f t="shared" si="2"/>
         <v>1.4600000000000009</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="12">
         <f t="shared" si="2"/>
         <v>1.4600000000000009</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="12">
         <f t="shared" si="2"/>
         <v>1.4600000000000009</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="12">
         <v>1.46</v>
       </c>
+      <c r="S21">
+        <f>(S20/T19)*100</f>
+        <v>7.390231242140044</v>
+      </c>
+      <c r="T21" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="59" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <f>B20*B21</f>
         <v>2.3448398632478626E-5</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <f>C20*C21</f>
         <v>2.3349522599540041E-5</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <f>D20*D21</f>
         <v>2.2928509705835608E-5</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <f>E20*E21</f>
         <v>2.3173714522204018E-4</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <f>F20*F21</f>
         <v>2.177029699714871E-5</v>
       </c>
-      <c r="G22" s="13">
-        <f t="shared" ref="E22:Q22" si="3">G20*G21</f>
+      <c r="G22" s="12">
+        <f t="shared" ref="G22:Q22" si="3">G20*G21</f>
         <v>2.1602852780183492E-5</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <f t="shared" si="3"/>
         <v>2.1427962750757625E-5</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <f t="shared" si="3"/>
         <v>2.1245201022959982E-4</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="12">
         <f t="shared" si="3"/>
         <v>1.8716430073792275E-5</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="12">
         <f t="shared" si="3"/>
         <v>1.8403708028372232E-5</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="12">
         <f t="shared" si="3"/>
         <v>1.8075613659125477E-5</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="12">
         <f t="shared" si="3"/>
         <v>1.7731440508164637E-4</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="12">
         <f t="shared" si="3"/>
         <v>1.2516544126572231E-5</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="12">
         <f t="shared" si="3"/>
         <v>1.1946611184989721E-5</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="12">
         <f t="shared" si="3"/>
         <v>1.1362823905528065E-5</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="12">
         <f t="shared" si="3"/>
         <v>1.0767487064786478E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>0</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <f>($B$19-C19)*1000</f>
         <v>2.3448398632478613E-2</v>
       </c>
-      <c r="D23" s="13">
-        <f t="shared" ref="D23:Q23" si="4">($B$19-D19)*1000</f>
+      <c r="D23" s="12">
+        <f>($B$19-D19)*1000</f>
         <v>4.6797921232018626E-2</v>
       </c>
-      <c r="E23" s="13">
-        <f t="shared" si="4"/>
+      <c r="E23" s="12">
+        <f t="shared" ref="E23:Q23" si="4">($B$19-E19)*1000</f>
         <v>6.9726430937854189E-2</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <f>($B$19-F19)*1000</f>
         <v>0.30146357615989439</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="12">
         <f t="shared" si="4"/>
         <v>0.32323387315704311</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="12">
         <f t="shared" si="4"/>
         <v>0.34483672593722664</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="12">
         <f t="shared" si="4"/>
         <v>0.36626468868798429</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="12">
         <f t="shared" si="4"/>
         <v>0.57871669891758415</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="12">
         <f t="shared" si="4"/>
         <v>0.59743312899137646</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="12">
         <f t="shared" si="4"/>
         <v>0.61583683701974867</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="12">
         <f t="shared" si="4"/>
         <v>0.63391245067887414</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="12">
         <f t="shared" si="4"/>
         <v>0.81122685576052045</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="12">
         <f t="shared" si="4"/>
         <v>0.82374339988709266</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="12">
         <f t="shared" si="4"/>
         <v>0.83569001107208241</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q23" s="12">
         <f t="shared" si="4"/>
         <v>0.84705283497761052</v>
       </c>
-      <c r="R23" s="66"/>
+      <c r="R23" s="51"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="12">
+        <f>SQRT((B23-B4)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
+        <f t="shared" ref="C25:Q25" si="5">SQRT((C23-C4)^2)</f>
+        <v>1.5642899697760407E-3</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="5"/>
+        <v>1.4572201283318605E-2</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" si="5"/>
+        <v>2.8345735797103082E-2</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="5"/>
+        <v>0.13863404498478785</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" si="5"/>
+        <v>0.15308502546359942</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="5"/>
+        <v>0.16607310747441267</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" si="5"/>
+        <v>0.17856243589304177</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="5"/>
+        <v>0.29417924085791547</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="5"/>
+        <v>0.30350362761171767</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="5"/>
+        <v>0.31413461013389116</v>
+      </c>
+      <c r="M25" s="12">
+        <f t="shared" si="5"/>
+        <v>0.32527954354998945</v>
+      </c>
+      <c r="N25" s="12">
+        <f t="shared" si="5"/>
+        <v>0.41871328587724094</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" si="5"/>
+        <v>0.42293892279720113</v>
+      </c>
+      <c r="P25" s="12">
+        <f t="shared" si="5"/>
+        <v>0.42873212628978347</v>
+      </c>
+      <c r="Q25" s="12">
+        <f t="shared" si="5"/>
+        <v>0.43141540671338952</v>
+      </c>
+      <c r="R25" s="56">
+        <f>SUM(B25:Q25)</f>
+        <v>3.6197336046971684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="59" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="65">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="67">
+        <v>1.1492186918832463</v>
+      </c>
+      <c r="C52" s="12">
+        <v>0.79833236689976439</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0.68865699653339341</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0.62142158560182725</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="12">
         <v>0</v>
       </c>
-      <c r="B26" s="32">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>26</v>
+      <c r="C55" s="12">
+        <v>1.46</v>
+      </c>
+      <c r="D55" s="12">
+        <v>2.92</v>
+      </c>
+      <c r="E55" s="12">
+        <v>4.3599999999999994</v>
+      </c>
+      <c r="F55" s="12">
+        <v>18.98</v>
+      </c>
+      <c r="G55" s="12">
+        <v>20.439999999999998</v>
+      </c>
+      <c r="H55" s="12">
+        <v>21.9</v>
+      </c>
+      <c r="I55" s="12">
+        <v>23.36</v>
+      </c>
+      <c r="J55" s="12">
+        <v>37.96</v>
+      </c>
+      <c r="K55" s="12">
+        <v>39.42</v>
+      </c>
+      <c r="L55" s="12">
+        <v>40.879999999999995</v>
+      </c>
+      <c r="M55" s="12">
+        <v>42.339999999999996</v>
+      </c>
+      <c r="N55" s="12">
+        <v>56.94</v>
+      </c>
+      <c r="O55" s="12">
+        <v>58.4</v>
+      </c>
+      <c r="P55" s="12">
+        <v>59.86</v>
+      </c>
+      <c r="Q55" s="12">
+        <v>61.32</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="32">
-        <v>0.77717405571218301</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>3</v>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="12">
+        <v>9.6999999999999994E-4</v>
+      </c>
+      <c r="C56" s="12">
+        <f>B56-B59</f>
+        <v>9.5386386945917718E-4</v>
+      </c>
+      <c r="D56" s="12">
+        <f t="shared" ref="D56:M56" si="6">C56-C59</f>
+        <v>9.3777426564338353E-4</v>
+      </c>
+      <c r="E56" s="12">
+        <f>D56-D59</f>
+        <v>9.2195212041444206E-4</v>
+      </c>
+      <c r="F56" s="12">
+        <f t="shared" si="6"/>
+        <v>8.1069619693462211E-4</v>
+      </c>
+      <c r="G56" s="12">
+        <f t="shared" si="6"/>
+        <v>7.9985113375355161E-4</v>
+      </c>
+      <c r="H56" s="12">
+        <f t="shared" si="6"/>
+        <v>7.8903509079174836E-4</v>
+      </c>
+      <c r="I56" s="12">
+        <f t="shared" si="6"/>
+        <v>7.7824862427261184E-4</v>
+      </c>
+      <c r="J56" s="12">
+        <f t="shared" si="6"/>
+        <v>6.8546252337507501E-4</v>
+      </c>
+      <c r="K56" s="12">
+        <f t="shared" si="6"/>
+        <v>6.7643377936291225E-4</v>
+      </c>
+      <c r="L56" s="12">
+        <f t="shared" si="6"/>
+        <v>6.6743217360158377E-4</v>
+      </c>
+      <c r="M56" s="12">
+        <f t="shared" si="6"/>
+        <v>6.5845818691715027E-4</v>
+      </c>
+      <c r="N56" s="12">
+        <f>M56-M59</f>
+        <v>5.7773352499550842E-4</v>
+      </c>
+      <c r="O56" s="12">
+        <f>N56-N59</f>
+        <v>5.6991555625820892E-4</v>
+      </c>
+      <c r="P56" s="12">
+        <f>O56-O59</f>
+        <v>5.6212506944844343E-4</v>
+      </c>
+      <c r="Q56" s="12">
+        <f>P56-P59</f>
+        <v>5.5436252881724485E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="12">
+        <f>($B$12*$B$52*B56)/($B$50+B56)</f>
+        <v>1.1052144206042979E-5</v>
+      </c>
+      <c r="C57" s="12">
+        <f>($B$12*$B$52*C56)/($B$50+C56)</f>
+        <v>1.1020276586160026E-5</v>
+      </c>
+      <c r="D57" s="12">
+        <f>($B$12*$B$52*D56)/($B$50+D56)</f>
+        <v>1.0987600853431595E-5</v>
+      </c>
+      <c r="E57" s="12">
+        <f>($B$12*$C$52*E56)/($B$50+E56)</f>
+        <v>7.6098442872653862E-6</v>
+      </c>
+      <c r="F57" s="12">
+        <f>($B$12*$C$52*F56)/($B$50+F56)</f>
+        <v>7.4281254664866475E-6</v>
+      </c>
+      <c r="G57" s="12">
+        <f>($B$12*$C$52*G56)/($B$50+G56)</f>
+        <v>7.4082486039748509E-6</v>
+      </c>
+      <c r="H57" s="12">
+        <f>($B$12*$C$52*H56)/($B$50+H56)</f>
+        <v>7.3879907665318884E-6</v>
+      </c>
+      <c r="I57" s="12">
+        <f>($B$12*$D$52*I56)/($B$50+I56)</f>
+        <v>6.3552123902422506E-6</v>
+      </c>
+      <c r="J57" s="12">
+        <f>($B$12*$D$52*J56)/($B$50+J56)</f>
+        <v>6.1840712412073469E-6</v>
+      </c>
+      <c r="K57" s="12">
+        <f>($B$12*$D$52*K56)/($B$50+K56)</f>
+        <v>6.1654833981702289E-6</v>
+      </c>
+      <c r="L57" s="12">
+        <f>($B$12*$D$52*L56)/($B$50+L56)</f>
+        <v>6.1465662222146909E-6</v>
+      </c>
+      <c r="M57" s="12">
+        <f>($B$12*$E$52*M56)/($B$50+M56)</f>
+        <v>5.5290864329891668E-6</v>
+      </c>
+      <c r="N57" s="12">
+        <f>($B$12*$E$52*N56)/($B$50+N56)</f>
+        <v>5.354773107739358E-6</v>
+      </c>
+      <c r="O57" s="12">
+        <f>($B$12*$E$52*O56)/($B$50+O56)</f>
+        <v>5.3359498697023906E-6</v>
+      </c>
+      <c r="P57" s="12">
+        <f>($B$12*$E$52*P56)/($B$50+P56)</f>
+        <v>5.3168086515058648E-6</v>
+      </c>
+      <c r="Q57" s="12">
+        <f>($B$12*$E$52*Q56)/($B$50+Q56)</f>
+        <v>5.2973428697119012E-6</v>
+      </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="13">
-        <v>0</v>
-      </c>
-      <c r="C30" s="13">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="12">
+        <f>C55-B55</f>
         <v>1.46</v>
       </c>
-      <c r="D30" s="13">
-        <v>2.92</v>
-      </c>
-      <c r="E30" s="13">
-        <v>4.3599999999999994</v>
-      </c>
-      <c r="F30" s="13">
-        <v>18.98</v>
-      </c>
-      <c r="G30" s="13">
-        <v>20.439999999999998</v>
-      </c>
-      <c r="H30" s="13">
-        <v>21.9</v>
-      </c>
-      <c r="I30" s="13">
-        <v>23.36</v>
-      </c>
-      <c r="J30" s="13">
-        <v>37.96</v>
-      </c>
-      <c r="K30" s="13">
-        <v>39.42</v>
-      </c>
-      <c r="L30" s="13">
-        <v>40.879999999999995</v>
-      </c>
-      <c r="M30" s="13">
-        <v>42.339999999999996</v>
-      </c>
-      <c r="N30" s="13">
-        <v>56.94</v>
-      </c>
-      <c r="O30" s="13">
-        <v>58.4</v>
-      </c>
-      <c r="P30" s="16">
-        <v>59.86</v>
-      </c>
-      <c r="Q30" s="13">
-        <v>61.32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="13">
-        <v>9.6999999999999994E-4</v>
-      </c>
-      <c r="C31" s="13">
-        <f>B31-B34</f>
-        <v>9.5908773229631166E-4</v>
-      </c>
-      <c r="D31" s="13">
-        <f t="shared" ref="D31:Q31" si="5">C31-C34</f>
-        <v>9.4819664683706752E-4</v>
-      </c>
-      <c r="E31" s="13">
-        <f>D31-D34</f>
-        <v>9.3747600180561872E-4</v>
-      </c>
-      <c r="F31" s="13">
-        <f t="shared" si="5"/>
-        <v>8.2884805463609185E-4</v>
-      </c>
-      <c r="G31" s="13">
-        <f t="shared" si="5"/>
-        <v>8.1824446722295128E-4</v>
-      </c>
-      <c r="H31" s="13">
-        <f t="shared" si="5"/>
-        <v>8.0766752437614567E-4</v>
-      </c>
-      <c r="I31" s="13">
-        <f t="shared" si="5"/>
-        <v>7.9711771778807157E-4</v>
-      </c>
-      <c r="J31" s="13">
-        <f t="shared" si="5"/>
-        <v>6.9189605311555189E-4</v>
-      </c>
-      <c r="K31" s="13">
-        <f t="shared" si="5"/>
-        <v>6.8168534761543743E-4</v>
-      </c>
-      <c r="L31" s="13">
-        <f t="shared" si="5"/>
-        <v>6.7150882329283042E-4</v>
-      </c>
-      <c r="M31" s="13">
-        <f t="shared" si="5"/>
-        <v>6.6136716264791689E-4</v>
-      </c>
-      <c r="N31" s="13">
-        <f>M31-M34</f>
-        <v>5.6030619415798916E-4</v>
-      </c>
-      <c r="O31" s="13">
-        <f>N31-N34</f>
-        <v>5.5060632147024672E-4</v>
-      </c>
-      <c r="P31" s="13">
-        <f>O31-O34</f>
-        <v>5.4095119171272243E-4</v>
-      </c>
-      <c r="Q31" s="13">
-        <f>P31-P34</f>
-        <v>5.3134176187427911E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="13">
-        <f>($B$12*$B$27*B31)/($B$26+B31)</f>
-        <v>7.4741559614303268E-6</v>
-      </c>
-      <c r="C32" s="13">
-        <f t="shared" ref="C32:Q32" si="6">($B$12*$B$27*C31)/($B$26+C31)</f>
-        <v>7.4596475748247396E-6</v>
-      </c>
-      <c r="D32" s="13">
-        <f t="shared" si="6"/>
-        <v>7.4448923829505541E-6</v>
-      </c>
-      <c r="E32" s="13">
-        <f t="shared" si="6"/>
-        <v>7.4300921456584716E-6</v>
-      </c>
-      <c r="F32" s="13">
-        <f t="shared" si="6"/>
-        <v>7.2627311048908069E-6</v>
-      </c>
-      <c r="G32" s="13">
-        <f t="shared" si="6"/>
-        <v>7.2444814019216595E-6</v>
-      </c>
-      <c r="H32" s="13">
-        <f t="shared" si="6"/>
-        <v>7.2258949233383956E-6</v>
-      </c>
-      <c r="I32" s="13">
-        <f t="shared" si="6"/>
-        <v>7.2069633337342222E-6</v>
-      </c>
-      <c r="J32" s="13">
-        <f t="shared" si="6"/>
-        <v>6.9936339041879714E-6</v>
-      </c>
-      <c r="K32" s="13">
-        <f t="shared" si="6"/>
-        <v>6.970222138771948E-6</v>
-      </c>
-      <c r="L32" s="13">
-        <f t="shared" si="6"/>
-        <v>6.9463429074750209E-6</v>
-      </c>
-      <c r="M32" s="13">
-        <f t="shared" si="6"/>
-        <v>6.9219841431457309E-6</v>
-      </c>
-      <c r="N32" s="13">
-        <f t="shared" si="6"/>
-        <v>6.6437484162619601E-6</v>
-      </c>
-      <c r="O32" s="13">
-        <f t="shared" si="6"/>
-        <v>6.6131025736468089E-6</v>
-      </c>
-      <c r="P32" s="13">
-        <f t="shared" si="6"/>
-        <v>6.5818012592077711E-6</v>
-      </c>
-      <c r="Q32" s="13">
-        <f t="shared" si="6"/>
-        <v>6.5498274834556752E-6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="13">
-        <f>C30-B30</f>
+      <c r="C58" s="12">
+        <f t="shared" ref="C58:P58" si="7">D55-C55</f>
         <v>1.46</v>
       </c>
-      <c r="C33" s="13">
-        <f t="shared" ref="C33:Q33" si="7">D30-C30</f>
-        <v>1.46</v>
-      </c>
-      <c r="D33" s="13">
+      <c r="D58" s="12">
         <f t="shared" si="7"/>
         <v>1.4399999999999995</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E58" s="12">
         <f t="shared" si="7"/>
         <v>14.620000000000001</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F58" s="12">
         <f t="shared" si="7"/>
         <v>1.4599999999999973</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G58" s="12">
         <f t="shared" si="7"/>
         <v>1.4600000000000009</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H58" s="12">
         <f t="shared" si="7"/>
         <v>1.4600000000000009</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I58" s="12">
         <f t="shared" si="7"/>
         <v>14.600000000000001</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J58" s="12">
         <f t="shared" si="7"/>
         <v>1.4600000000000009</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K58" s="12">
         <f t="shared" si="7"/>
         <v>1.4599999999999937</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L58" s="12">
         <f t="shared" si="7"/>
         <v>1.4600000000000009</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M58" s="12">
         <f t="shared" si="7"/>
         <v>14.600000000000001</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N58" s="12">
         <f t="shared" si="7"/>
         <v>1.4600000000000009</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O58" s="12">
         <f t="shared" si="7"/>
         <v>1.4600000000000009</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P58" s="12">
         <f t="shared" si="7"/>
         <v>1.4600000000000009</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="Q58" s="12">
         <f>1.46</f>
         <v>1.46</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="59" t="s">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="13">
-        <f>B32*B33</f>
-        <v>1.0912267703688276E-5</v>
-      </c>
-      <c r="C34" s="13">
-        <f>C32*C33</f>
-        <v>1.0891085459244119E-5</v>
-      </c>
-      <c r="D34" s="13">
-        <f>D32*D33</f>
-        <v>1.0720645031448794E-5</v>
-      </c>
-      <c r="E34" s="13">
-        <f t="shared" ref="E34" si="8">E32*E33</f>
-        <v>1.0862794716952687E-4</v>
-      </c>
-      <c r="F34" s="13">
-        <f>F32*F33</f>
-        <v>1.0603587413140558E-5</v>
-      </c>
-      <c r="G34" s="13">
-        <f t="shared" ref="G34" si="9">G32*G33</f>
-        <v>1.0576942846805629E-5</v>
-      </c>
-      <c r="H34" s="13">
-        <f t="shared" ref="H34" si="10">H32*H33</f>
-        <v>1.0549806588074064E-5</v>
-      </c>
-      <c r="I34" s="13">
-        <f t="shared" ref="I34" si="11">I32*I33</f>
-        <v>1.0522166467251965E-4</v>
-      </c>
-      <c r="J34" s="13">
-        <f t="shared" ref="J34" si="12">J32*J33</f>
-        <v>1.0210705500114445E-5</v>
-      </c>
-      <c r="K34" s="13">
-        <f t="shared" ref="K34" si="13">K32*K33</f>
-        <v>1.0176524322607E-5</v>
-      </c>
-      <c r="L34" s="13">
-        <f t="shared" ref="L34" si="14">L32*L33</f>
-        <v>1.0141660644913536E-5</v>
-      </c>
-      <c r="M34" s="13">
-        <f t="shared" ref="M34" si="15">M32*M33</f>
-        <v>1.0106096848992768E-4</v>
-      </c>
-      <c r="N34" s="13">
-        <f t="shared" ref="N34" si="16">N32*N33</f>
-        <v>9.6998726877424674E-6</v>
-      </c>
-      <c r="O34" s="13">
-        <f t="shared" ref="O34" si="17">O32*O33</f>
-        <v>9.655129757524346E-6</v>
-      </c>
-      <c r="P34" s="13">
-        <f t="shared" ref="P34" si="18">P32*P33</f>
-        <v>9.6094298384433513E-6</v>
-      </c>
-      <c r="Q34" s="13">
-        <f>Q32*Q33</f>
-        <v>9.5627481258452863E-6</v>
+      <c r="B59" s="12">
+        <f>B57*B58</f>
+        <v>1.6136130540822749E-5</v>
+      </c>
+      <c r="C59" s="12">
+        <f>C57*C58</f>
+        <v>1.6089603815793638E-5</v>
+      </c>
+      <c r="D59" s="12">
+        <f>D57*D58</f>
+        <v>1.5822145228941491E-5</v>
+      </c>
+      <c r="E59" s="12">
+        <f t="shared" ref="E59" si="8">E57*E58</f>
+        <v>1.1125592347981995E-4</v>
+      </c>
+      <c r="F59" s="12">
+        <f>F57*F58</f>
+        <v>1.0845063181070485E-5</v>
+      </c>
+      <c r="G59" s="12">
+        <f t="shared" ref="G59" si="9">G57*G58</f>
+        <v>1.0816042961803289E-5</v>
+      </c>
+      <c r="H59" s="12">
+        <f t="shared" ref="H59" si="10">H57*H58</f>
+        <v>1.0786466519136564E-5</v>
+      </c>
+      <c r="I59" s="12">
+        <f t="shared" ref="I59" si="11">I57*I58</f>
+        <v>9.2786100897536869E-5</v>
+      </c>
+      <c r="J59" s="12">
+        <f t="shared" ref="J59" si="12">J57*J58</f>
+        <v>9.0287440121627316E-6</v>
+      </c>
+      <c r="K59" s="12">
+        <f t="shared" ref="K59" si="13">K57*K58</f>
+        <v>9.0016057613284959E-6</v>
+      </c>
+      <c r="L59" s="12">
+        <f t="shared" ref="L59" si="14">L57*L58</f>
+        <v>8.9739866844334542E-6</v>
+      </c>
+      <c r="M59" s="12">
+        <f t="shared" ref="M59" si="15">M57*M58</f>
+        <v>8.0724661921641842E-5</v>
+      </c>
+      <c r="N59" s="12">
+        <f t="shared" ref="N59" si="16">N57*N58</f>
+        <v>7.8179687372994676E-6</v>
+      </c>
+      <c r="O59" s="12">
+        <f t="shared" ref="O59" si="17">O57*O58</f>
+        <v>7.7904868097654943E-6</v>
+      </c>
+      <c r="P59" s="12">
+        <f t="shared" ref="P59" si="18">P57*P58</f>
+        <v>7.7625406311985677E-6</v>
+      </c>
+      <c r="Q59" s="12">
+        <f>Q57*Q58</f>
+        <v>7.7341205897793756E-6</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="63" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B60" s="12">
         <v>0</v>
       </c>
-      <c r="C35" s="13">
-        <f>($B$31-C31)*1000</f>
-        <v>1.0912267703688285E-2</v>
-      </c>
-      <c r="D35" s="13">
-        <f t="shared" ref="D35:Q35" si="19">($B$31-D31)*1000</f>
-        <v>2.1803353162932419E-2</v>
-      </c>
-      <c r="E35" s="13">
+      <c r="C60" s="12">
+        <f>($B$56-C56)*1000</f>
+        <v>1.6136130540822764E-2</v>
+      </c>
+      <c r="D60" s="12">
+        <f>($B$56-D56)*1000</f>
+        <v>3.2225734356616409E-2</v>
+      </c>
+      <c r="E60" s="12">
+        <f>($B$56-E56)*1000</f>
+        <v>4.8047879585557882E-2</v>
+      </c>
+      <c r="F60" s="12">
+        <f>($B$56-F56)*1000</f>
+        <v>0.15930380306537784</v>
+      </c>
+      <c r="G60" s="12">
+        <f>($B$56-G56)*1000</f>
+        <v>0.17014886624644834</v>
+      </c>
+      <c r="H60" s="12">
+        <f>($B$56-H56)*1000</f>
+        <v>0.18096490920825159</v>
+      </c>
+      <c r="I60" s="12">
+        <f>($B$56-I56)*1000</f>
+        <v>0.1917513757273881</v>
+      </c>
+      <c r="J60" s="12">
+        <f>($B$56-J56)*1000</f>
+        <v>0.2845374766249249</v>
+      </c>
+      <c r="K60" s="12">
+        <f>($B$56-K56)*1000</f>
+        <v>0.2935662206370877</v>
+      </c>
+      <c r="L60" s="12">
+        <f>($B$56-L56)*1000</f>
+        <v>0.30256782639841617</v>
+      </c>
+      <c r="M60" s="12">
+        <f>($B$56-M56)*1000</f>
+        <v>0.31154181308284967</v>
+      </c>
+      <c r="N60" s="12">
+        <f>($B$56-N56)*1000</f>
+        <v>0.39226647500449152</v>
+      </c>
+      <c r="O60" s="12">
+        <f>($B$56-O56)*1000</f>
+        <v>0.40008444374179103</v>
+      </c>
+      <c r="P60" s="12">
+        <f>($B$56-P56)*1000</f>
+        <v>0.40787493055155649</v>
+      </c>
+      <c r="Q60" s="12">
+        <f>($B$56-Q56)*1000</f>
+        <v>0.41563747118275507</v>
+      </c>
+      <c r="R60" s="51"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="12">
+        <f>SQRT((B60-B4)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="C62" s="12">
+        <f>SQRT((C60-C4)^2)</f>
+        <v>5.7479781218798091E-3</v>
+      </c>
+      <c r="D62" s="12">
+        <f>SQRT((D60-D4)^2)</f>
+        <v>1.4407916387737529E-8</v>
+      </c>
+      <c r="E62" s="12">
+        <f>SQRT((E60-E4)^2)</f>
+        <v>6.6671844448067744E-3</v>
+      </c>
+      <c r="F62" s="12">
+        <f>SQRT((F60-F4)^2)</f>
+        <v>3.5257281097287041E-3</v>
+      </c>
+      <c r="G62" s="12">
+        <f>SQRT((G60-G4)^2)</f>
+        <v>1.8553004660359917E-8</v>
+      </c>
+      <c r="H62" s="12">
+        <f>SQRT((H60-H4)^2)</f>
+        <v>2.2012907454376229E-3</v>
+      </c>
+      <c r="I62" s="12">
+        <f>SQRT((I60-I4)^2)</f>
+        <v>4.0491229324455813E-3</v>
+      </c>
+      <c r="J62" s="12">
+        <f>SQRT((J60-J4)^2)</f>
+        <v>1.8565256221236837E-8</v>
+      </c>
+      <c r="K62" s="12">
+        <f>SQRT((K60-K4)^2)</f>
+        <v>3.6328074257108156E-4</v>
+      </c>
+      <c r="L62" s="12">
+        <f>SQRT((L60-L4)^2)</f>
+        <v>8.6559951255865686E-4</v>
+      </c>
+      <c r="M62" s="12">
+        <f>SQRT((M60-M4)^2)</f>
+        <v>2.9089059539649798E-3</v>
+      </c>
+      <c r="N62" s="12">
+        <f>SQRT((N60-N4)^2)</f>
+        <v>2.4709487878799008E-4</v>
+      </c>
+      <c r="O62" s="12">
+        <f>SQRT((O60-O4)^2)</f>
+        <v>7.2003334810050168E-4</v>
+      </c>
+      <c r="P62" s="12">
+        <f>SQRT((P60-P4)^2)</f>
+        <v>9.1704576925755177E-4</v>
+      </c>
+      <c r="Q62" s="12">
+        <f>SQRT((Q60-Q4)^2)</f>
+        <v>4.2918534060021329E-8</v>
+      </c>
+      <c r="R62" s="56">
+        <f>SUM(B62:Q62)</f>
+        <v>2.8213359004250583E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D63" s="12">
+        <f>SUM(B62:D62)</f>
+        <v>5.7479925297961969E-3</v>
+      </c>
+      <c r="H63" s="12">
+        <f>SUM(E62:H62)</f>
+        <v>1.2394221852977762E-2</v>
+      </c>
+      <c r="L63" s="12">
+        <f>SUM(I62:L62)</f>
+        <v>5.278021752831541E-3</v>
+      </c>
+      <c r="Q63" s="12">
+        <f>SUM(M62:Q62)</f>
+        <v>4.7931228686450833E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12">
+        <v>9.377742789830933E-4</v>
+      </c>
+      <c r="D66" s="12">
+        <v>7.8903511011994398E-4</v>
+      </c>
+      <c r="E66" s="12">
+        <v>6.6743219229364295E-4</v>
+      </c>
+      <c r="F66" s="12">
+        <v>5.5436254672694342E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12">
+        <f>C66*1000</f>
+        <v>0.93777427898309329</v>
+      </c>
+      <c r="D67" s="12">
+        <f t="shared" ref="D67:F67" si="19">D66*1000</f>
+        <v>0.78903511011994398</v>
+      </c>
+      <c r="E67" s="12">
         <f t="shared" si="19"/>
-        <v>3.2523998194381225E-2</v>
-      </c>
-      <c r="F35" s="13">
+        <v>0.66743219229364292</v>
+      </c>
+      <c r="F67" s="12">
         <f t="shared" si="19"/>
-        <v>0.1411519453639081</v>
-      </c>
-      <c r="G35" s="13">
-        <f t="shared" si="19"/>
-        <v>0.15175553277704867</v>
-      </c>
-      <c r="H35" s="13">
-        <f t="shared" si="19"/>
-        <v>0.16233247562385428</v>
-      </c>
-      <c r="I35" s="13">
-        <f t="shared" si="19"/>
-        <v>0.17288228221192836</v>
-      </c>
-      <c r="J35" s="13">
-        <f t="shared" si="19"/>
-        <v>0.27810394688444806</v>
-      </c>
-      <c r="K35" s="13">
-        <f t="shared" si="19"/>
-        <v>0.2883146523845625</v>
-      </c>
-      <c r="L35" s="13">
-        <f t="shared" si="19"/>
-        <v>0.29849117670716951</v>
-      </c>
-      <c r="M35" s="13">
-        <f t="shared" si="19"/>
-        <v>0.30863283735208308</v>
-      </c>
-      <c r="N35" s="13">
-        <f t="shared" si="19"/>
-        <v>0.40969380584201076</v>
-      </c>
-      <c r="O35" s="13">
-        <f t="shared" si="19"/>
-        <v>0.41939367852975323</v>
-      </c>
-      <c r="P35" s="13">
-        <f t="shared" si="19"/>
-        <v>0.42904880828727754</v>
-      </c>
-      <c r="Q35" s="13">
-        <f t="shared" si="19"/>
-        <v>0.43865823812572086</v>
-      </c>
-      <c r="R35" s="67"/>
+        <v>0.55436254672694341</v>
+      </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="13">
-        <f>SQRT((B35-B4)^2)</f>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="10">
+        <v>1.1492182154714601</v>
+      </c>
+      <c r="D68" s="12">
+        <v>0.79833236689976395</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0.68865699653339341</v>
+      </c>
+      <c r="F68" s="12">
+        <v>0.62142158560182725</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G71" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H71" s="70"/>
+      <c r="I71" s="70"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="61"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B88" s="12">
         <v>0</v>
       </c>
-      <c r="C37" s="13">
-        <f t="shared" ref="C37:Q37" si="20">SQRT((C35-C4)^2)</f>
-        <v>1.0971840959014288E-2</v>
-      </c>
-      <c r="D37" s="13">
-        <f t="shared" si="20"/>
-        <v>1.0422366785767603E-2</v>
-      </c>
-      <c r="E37" s="13">
-        <f t="shared" si="20"/>
-        <v>8.8566969463698825E-3</v>
-      </c>
-      <c r="F37" s="13">
-        <f t="shared" si="20"/>
-        <v>2.1677585811198441E-2</v>
-      </c>
-      <c r="G37" s="13">
-        <f t="shared" si="20"/>
-        <v>1.8393314916395009E-2</v>
-      </c>
-      <c r="H37" s="13">
-        <f t="shared" si="20"/>
-        <v>1.6431142838959689E-2</v>
-      </c>
-      <c r="I37" s="13">
-        <f t="shared" si="20"/>
-        <v>1.4819970583014153E-2</v>
-      </c>
-      <c r="J37" s="13">
-        <f t="shared" si="20"/>
-        <v>6.4335111752206187E-3</v>
-      </c>
-      <c r="K37" s="13">
-        <f t="shared" si="20"/>
-        <v>5.6148489950962888E-3</v>
-      </c>
-      <c r="L37" s="13">
-        <f t="shared" si="20"/>
-        <v>3.2110501786880019E-3</v>
-      </c>
-      <c r="M37" s="13">
-        <f t="shared" si="20"/>
-        <v>6.9776801614462869E-8</v>
-      </c>
-      <c r="N37" s="13">
-        <f t="shared" si="20"/>
-        <v>1.7180235958731249E-2</v>
-      </c>
-      <c r="O37" s="13">
-        <f t="shared" si="20"/>
-        <v>1.8589201439861702E-2</v>
-      </c>
-      <c r="P37" s="13">
-        <f>SQRT((P35-P4)^2)</f>
-        <v>2.2090923504978599E-2</v>
-      </c>
-      <c r="Q37" s="13">
-        <f>SQRT((Q35-Q4)^2)</f>
-        <v>2.3020809861500013E-2</v>
-      </c>
-      <c r="R37" s="68">
-        <f>SUM(B37:Q37)</f>
-        <v>0.19771356973159715</v>
+      <c r="C88" s="12">
+        <v>59.35</v>
+      </c>
+      <c r="F88">
+        <f>P6-C89</f>
+        <v>8.0810866752759392E-2</v>
+      </c>
+      <c r="G88" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" s="13">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89" s="12">
         <v>0</v>
       </c>
-      <c r="C64" s="13">
-        <v>59.35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="13">
-        <v>0</v>
-      </c>
-      <c r="C65" s="13">
-        <f>0.00039806642*1000</f>
-        <v>0.39806641999999998</v>
-      </c>
-      <c r="D65" s="49" t="s">
+      <c r="C89" s="12">
+        <v>0.32399753999999997</v>
+      </c>
+      <c r="D89" s="36" t="s">
         <v>43</v>
+      </c>
+      <c r="F89">
+        <f>F88/C89*100</f>
+        <v>24.941814914014284</v>
       </c>
     </row>
   </sheetData>
@@ -7661,8 +12991,8 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{1F03A24D-E0C2-4072-8A53-436DB9A488A0}">
